--- a/grid.xlsx
+++ b/grid.xlsx
@@ -20,6 +20,17 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+  <si>
+    <t>Proportion of Store cells</t>
+  </si>
+  <si>
+    <t>Movement threshold</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,62 +380,1955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.49843766380438231</v>
+      </c>
+      <c r="C3">
+        <v>0.49684213635826491</v>
+      </c>
+      <c r="D3">
+        <v>0.49665603213990289</v>
+      </c>
+      <c r="E3">
+        <v>0.50050957107408756</v>
+      </c>
+      <c r="F3">
+        <v>0.4957473503970713</v>
+      </c>
+      <c r="G3">
+        <v>0.50456484515691025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0.49745615233484669</v>
+      </c>
+      <c r="C4">
+        <v>0.53258005435424727</v>
+      </c>
+      <c r="D4">
+        <v>0.53602317401200172</v>
+      </c>
+      <c r="E4">
+        <v>0.53273071015006501</v>
+      </c>
+      <c r="F4">
+        <v>0.5449347562955742</v>
+      </c>
+      <c r="G4">
+        <v>0.55193784709913662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.50239252986829241</v>
+      </c>
+      <c r="C5">
+        <v>0.53635832593907118</v>
+      </c>
+      <c r="D5">
+        <v>0.53715363937138139</v>
+      </c>
+      <c r="E5">
+        <v>0.54347858176128427</v>
+      </c>
+      <c r="F5">
+        <v>0.54119816144955835</v>
+      </c>
+      <c r="G5">
+        <v>0.54667227933357032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.49680478014423318</v>
+      </c>
+      <c r="C6">
+        <v>0.55912132222616073</v>
+      </c>
+      <c r="D6">
+        <v>0.5746056362991846</v>
+      </c>
+      <c r="E6">
+        <v>0.5609042002896748</v>
+      </c>
+      <c r="F6">
+        <v>0.56948434867429221</v>
+      </c>
+      <c r="G6">
+        <v>0.55546865768639886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.50160749038260755</v>
+      </c>
+      <c r="C7">
+        <v>0.61329168143684276</v>
+      </c>
+      <c r="D7">
+        <v>0.60679132695261817</v>
+      </c>
+      <c r="E7">
+        <v>0.57152383906416182</v>
+      </c>
+      <c r="F7">
+        <v>0.58967761934284013</v>
+      </c>
+      <c r="G7">
+        <v>0.61446823918891103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0.5021385370587208</v>
+      </c>
+      <c r="C8">
+        <v>0.65637676025152714</v>
+      </c>
+      <c r="D8">
+        <v>0.65221257237386132</v>
+      </c>
+      <c r="E8">
+        <v>0.65549967505612561</v>
+      </c>
+      <c r="F8">
+        <v>0.66879489225857824</v>
+      </c>
+      <c r="G8">
+        <v>0.6380782418491916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.49723856985491971</v>
+      </c>
+      <c r="C9">
+        <v>0.77801862840610458</v>
+      </c>
+      <c r="D9">
+        <v>0.76683209263854202</v>
+      </c>
+      <c r="E9">
+        <v>0.7538358147229105</v>
+      </c>
+      <c r="F9">
+        <v>0.76331900626255422</v>
+      </c>
+      <c r="G9">
+        <v>0.76959411556185653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.49872914621266029</v>
+      </c>
+      <c r="C10">
+        <v>0.81761106677307749</v>
+      </c>
+      <c r="D10">
+        <v>0.81292327222271443</v>
+      </c>
+      <c r="E10">
+        <v>0.82127062852419241</v>
+      </c>
+      <c r="F10">
+        <v>0.81929723502304119</v>
+      </c>
+      <c r="G10">
+        <v>0.80911294374981368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.50569015751529478</v>
+      </c>
+      <c r="C11">
+        <v>0.83987281869269514</v>
+      </c>
+      <c r="D11">
+        <v>0.81834204233460217</v>
+      </c>
+      <c r="E11">
+        <v>0.83437472323089157</v>
+      </c>
+      <c r="F11">
+        <v>0.82154296932660242</v>
+      </c>
+      <c r="G11">
+        <v>0.82103568474536093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>0.49914736674073917</v>
+      </c>
+      <c r="C12">
+        <v>0.91829729410374639</v>
+      </c>
+      <c r="D12">
+        <v>0.88843516301616887</v>
+      </c>
+      <c r="E12">
+        <v>0.89415168423227853</v>
+      </c>
+      <c r="F12">
+        <v>0.87947888031686849</v>
+      </c>
+      <c r="G12">
+        <v>0.902975451049985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.49969942079883461</v>
+      </c>
+      <c r="C13">
+        <v>0.89849709784411258</v>
+      </c>
+      <c r="D13">
+        <v>0.91037055145642554</v>
+      </c>
+      <c r="E13">
+        <v>0.89288816022687001</v>
+      </c>
+      <c r="F13">
+        <v>0.88955305447240896</v>
+      </c>
+      <c r="G13">
+        <v>0.87665261756876645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.49984220643179472</v>
+      </c>
+      <c r="C14">
+        <v>0.90137301866080788</v>
+      </c>
+      <c r="D14">
+        <v>0.95768297374885225</v>
+      </c>
+      <c r="E14">
+        <v>0.95960366755397664</v>
+      </c>
+      <c r="F14">
+        <v>0.9501553760099446</v>
+      </c>
+      <c r="G14">
+        <v>0.95890855719622725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.5012958585580104</v>
+      </c>
+      <c r="C15">
+        <v>0.91457888103952312</v>
+      </c>
+      <c r="D15">
+        <v>0.97440623892236689</v>
+      </c>
+      <c r="E15">
+        <v>0.96904169996152456</v>
+      </c>
+      <c r="F15">
+        <v>0.96894114167405965</v>
+      </c>
+      <c r="G15">
+        <v>0.9694809228039023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <v>0.50015953827524284</v>
+      </c>
+      <c r="C16">
+        <v>0.7858982438067621</v>
+      </c>
+      <c r="D16">
+        <v>0.98936921758150742</v>
+      </c>
+      <c r="E16">
+        <v>0.99018893627102478</v>
+      </c>
+      <c r="F16">
+        <v>0.9828609926557671</v>
+      </c>
+      <c r="G16">
+        <v>0.98116815938044866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.49687034001973179</v>
+      </c>
+      <c r="C17">
+        <v>0.73760634236870448</v>
+      </c>
+      <c r="D17">
+        <v>0.98745763596908454</v>
+      </c>
+      <c r="E17">
+        <v>0.99814584628133396</v>
+      </c>
+      <c r="F17">
+        <v>0.9961131840796017</v>
+      </c>
+      <c r="G17">
+        <v>0.99527950310558955</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.50190544133553749</v>
+      </c>
+      <c r="C3">
+        <v>0.48480591988656457</v>
+      </c>
+      <c r="D3">
+        <v>0.50380789808164095</v>
+      </c>
+      <c r="E3">
+        <v>0.50910802906770569</v>
+      </c>
+      <c r="F3">
+        <v>0.48450682382133958</v>
+      </c>
+      <c r="G3">
+        <v>0.50160330261136676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0.4966521638848862</v>
+      </c>
+      <c r="C4">
+        <v>0.54689354353024522</v>
+      </c>
+      <c r="D4">
+        <v>0.54512281635186677</v>
+      </c>
+      <c r="E4">
+        <v>0.54255804679191721</v>
+      </c>
+      <c r="F4">
+        <v>0.53980784000945325</v>
+      </c>
+      <c r="G4">
+        <v>0.54722148325500308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.49767883561393672</v>
+      </c>
+      <c r="C5">
+        <v>0.54841319044666881</v>
+      </c>
+      <c r="D5">
+        <v>0.55033939662821674</v>
+      </c>
+      <c r="E5">
+        <v>0.52831516601677886</v>
+      </c>
+      <c r="F5">
+        <v>0.54752230296585169</v>
+      </c>
+      <c r="G5">
+        <v>0.53841299399958664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.49977751768763701</v>
+      </c>
+      <c r="C6">
+        <v>0.55748257119224931</v>
+      </c>
+      <c r="D6">
+        <v>0.55589551577454765</v>
+      </c>
+      <c r="E6">
+        <v>0.56625531726338185</v>
+      </c>
+      <c r="F6">
+        <v>0.56544219798409712</v>
+      </c>
+      <c r="G6">
+        <v>0.56656475245184945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.5040502318029414</v>
+      </c>
+      <c r="C7">
+        <v>0.59984269762495557</v>
+      </c>
+      <c r="D7">
+        <v>0.6051316682903789</v>
+      </c>
+      <c r="E7">
+        <v>0.61691628264209064</v>
+      </c>
+      <c r="F7">
+        <v>0.61131986293276674</v>
+      </c>
+      <c r="G7">
+        <v>0.61600832521477422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0.50263227077356576</v>
+      </c>
+      <c r="C8">
+        <v>0.66491123124187557</v>
+      </c>
+      <c r="D8">
+        <v>0.65357438260664025</v>
+      </c>
+      <c r="E8">
+        <v>0.64884866477608338</v>
+      </c>
+      <c r="F8">
+        <v>0.67590688881011396</v>
+      </c>
+      <c r="G8">
+        <v>0.6497983870967744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.49494905086903629</v>
+      </c>
+      <c r="C9">
+        <v>0.74499807987710942</v>
+      </c>
+      <c r="D9">
+        <v>0.75331738154318639</v>
+      </c>
+      <c r="E9">
+        <v>0.76903727992437598</v>
+      </c>
+      <c r="F9">
+        <v>0.75330113434952117</v>
+      </c>
+      <c r="G9">
+        <v>0.77702351412028858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.50150012116489096</v>
+      </c>
+      <c r="C10">
+        <v>0.7987142561739331</v>
+      </c>
+      <c r="D10">
+        <v>0.83068356374807817</v>
+      </c>
+      <c r="E10">
+        <v>0.80832667436147831</v>
+      </c>
+      <c r="F10">
+        <v>0.82890818858560766</v>
+      </c>
+      <c r="G10">
+        <v>0.82788166134940133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.49765874149317763</v>
+      </c>
+      <c r="C11">
+        <v>0.8253149955634429</v>
+      </c>
+      <c r="D11">
+        <v>0.83182328107932479</v>
+      </c>
+      <c r="E11">
+        <v>0.83567219071251253</v>
+      </c>
+      <c r="F11">
+        <v>0.83734296946587428</v>
+      </c>
+      <c r="G11">
+        <v>0.8302810764504297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>0.49683767815034069</v>
+      </c>
+      <c r="C12">
+        <v>0.89270537194977551</v>
+      </c>
+      <c r="D12">
+        <v>0.88807824184919026</v>
+      </c>
+      <c r="E12">
+        <v>0.89167552877230338</v>
+      </c>
+      <c r="F12">
+        <v>0.88935808814841</v>
+      </c>
+      <c r="G12">
+        <v>0.88803538175046592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.50076299054429974</v>
+      </c>
+      <c r="C13">
+        <v>0.91042387159705673</v>
+      </c>
+      <c r="D13">
+        <v>0.8973133049745956</v>
+      </c>
+      <c r="E13">
+        <v>0.88053264757175276</v>
+      </c>
+      <c r="F13">
+        <v>0.88850067942809796</v>
+      </c>
+      <c r="G13">
+        <v>0.88702949251616325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.50188460455193218</v>
+      </c>
+      <c r="C14">
+        <v>0.96587153518123614</v>
+      </c>
+      <c r="D14">
+        <v>0.9666333511016344</v>
+      </c>
+      <c r="E14">
+        <v>0.96019613947696014</v>
+      </c>
+      <c r="F14">
+        <v>0.94940771960958137</v>
+      </c>
+      <c r="G14">
+        <v>0.9559716419237253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.49403952685330299</v>
+      </c>
+      <c r="C15">
+        <v>0.88197364048402416</v>
+      </c>
+      <c r="D15">
+        <v>0.97193496801705603</v>
+      </c>
+      <c r="E15">
+        <v>0.96990683229813568</v>
+      </c>
+      <c r="F15">
+        <v>0.96559168443496712</v>
+      </c>
+      <c r="G15">
+        <v>0.96923839100857601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <v>0.49542865682237658</v>
+      </c>
+      <c r="C16">
+        <v>0.79999268790730926</v>
+      </c>
+      <c r="D16">
+        <v>0.97064497917212944</v>
+      </c>
+      <c r="E16">
+        <v>0.98445578231292352</v>
+      </c>
+      <c r="F16">
+        <v>0.98357608406491015</v>
+      </c>
+      <c r="G16">
+        <v>0.9824108623548915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.50105583263170328</v>
+      </c>
+      <c r="C17">
+        <v>0.73034512537110285</v>
+      </c>
+      <c r="D17">
+        <v>0.85226969534727171</v>
+      </c>
+      <c r="E17">
+        <v>0.99782338308457696</v>
+      </c>
+      <c r="F17">
+        <v>0.99823797678275283</v>
+      </c>
+      <c r="G17">
+        <v>0.97758334743422104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.49894246545793097</v>
+      </c>
+      <c r="C3">
+        <v>0.4983940011218384</v>
+      </c>
+      <c r="D3">
+        <v>0.50279846885992119</v>
+      </c>
+      <c r="E3">
+        <v>0.49135742331650589</v>
+      </c>
+      <c r="F3">
+        <v>0.49534370199692812</v>
+      </c>
+      <c r="G3">
+        <v>0.49611377139310109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0.49605267245929169</v>
+      </c>
+      <c r="C4">
+        <v>0.55689619520264666</v>
+      </c>
+      <c r="D4">
+        <v>0.54786734060477194</v>
+      </c>
+      <c r="E4">
+        <v>0.54511107172397599</v>
+      </c>
+      <c r="F4">
+        <v>0.54907333510685363</v>
+      </c>
+      <c r="G4">
+        <v>0.54149005350122703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.50326505688962664</v>
+      </c>
+      <c r="C5">
+        <v>0.53237770294221842</v>
+      </c>
+      <c r="D5">
+        <v>0.54446018953148534</v>
+      </c>
+      <c r="E5">
+        <v>0.55300942337232672</v>
+      </c>
+      <c r="F5">
+        <v>0.52835960794733206</v>
+      </c>
+      <c r="G5">
+        <v>0.52757296466973924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.49880500491546959</v>
+      </c>
+      <c r="C6">
+        <v>0.56129177758059745</v>
+      </c>
+      <c r="D6">
+        <v>0.54649725274725258</v>
+      </c>
+      <c r="E6">
+        <v>0.55353967269289861</v>
+      </c>
+      <c r="F6">
+        <v>0.56686027607815281</v>
+      </c>
+      <c r="G6">
+        <v>0.56469805799414774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.49903079444039888</v>
+      </c>
+      <c r="C7">
+        <v>0.61207240340304891</v>
+      </c>
+      <c r="D7">
+        <v>0.60393255937610724</v>
+      </c>
+      <c r="E7">
+        <v>0.58398362448641694</v>
+      </c>
+      <c r="F7">
+        <v>0.5911548800661709</v>
+      </c>
+      <c r="G7">
+        <v>0.59435833849968978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0.50139977180921236</v>
+      </c>
+      <c r="C8">
+        <v>0.67204153373508069</v>
+      </c>
+      <c r="D8">
+        <v>0.64616106529514339</v>
+      </c>
+      <c r="E8">
+        <v>0.66259410149676667</v>
+      </c>
+      <c r="F8">
+        <v>0.6770663476308626</v>
+      </c>
+      <c r="G8">
+        <v>0.65578104691007821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.49949985312000411</v>
+      </c>
+      <c r="C9">
+        <v>0.74450890089451693</v>
+      </c>
+      <c r="D9">
+        <v>0.74739675646933545</v>
+      </c>
+      <c r="E9">
+        <v>0.76769457006887043</v>
+      </c>
+      <c r="F9">
+        <v>0.76086789554531287</v>
+      </c>
+      <c r="G9">
+        <v>0.79340659340659225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.50115949042021646</v>
+      </c>
+      <c r="C10">
+        <v>0.79030053434889169</v>
+      </c>
+      <c r="D10">
+        <v>0.82981135417589225</v>
+      </c>
+      <c r="E10">
+        <v>0.81067514474772484</v>
+      </c>
+      <c r="F10">
+        <v>0.80367696985799697</v>
+      </c>
+      <c r="G10">
+        <v>0.82621484698097503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.50356182085153511</v>
+      </c>
+      <c r="C11">
+        <v>0.86276113432305157</v>
+      </c>
+      <c r="D11">
+        <v>0.84317248611603435</v>
+      </c>
+      <c r="E11">
+        <v>0.83059472081818431</v>
+      </c>
+      <c r="F11">
+        <v>0.81212141378290315</v>
+      </c>
+      <c r="G11">
+        <v>0.83367136067073921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>0.50299750457735648</v>
+      </c>
+      <c r="C12">
+        <v>0.91882329424307008</v>
+      </c>
+      <c r="D12">
+        <v>0.90436187518485522</v>
+      </c>
+      <c r="E12">
+        <v>0.87713118146079083</v>
+      </c>
+      <c r="F12">
+        <v>0.89893425442092556</v>
+      </c>
+      <c r="G12">
+        <v>0.89894779650990797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.49477459542415447</v>
+      </c>
+      <c r="C13">
+        <v>0.91318122516752687</v>
+      </c>
+      <c r="D13">
+        <v>0.8902527449761749</v>
+      </c>
+      <c r="E13">
+        <v>0.89873858295645936</v>
+      </c>
+      <c r="F13">
+        <v>0.88643285477962819</v>
+      </c>
+      <c r="G13">
+        <v>0.88422471345858467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.49715768796415971</v>
+      </c>
+      <c r="C14">
+        <v>0.96600281857291148</v>
+      </c>
+      <c r="D14">
+        <v>0.95145650438946472</v>
+      </c>
+      <c r="E14">
+        <v>0.95265624538718041</v>
+      </c>
+      <c r="F14">
+        <v>0.96163873370577246</v>
+      </c>
+      <c r="G14">
+        <v>0.95478484122051477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.49310729019393612</v>
+      </c>
+      <c r="C15">
+        <v>0.97969074304690595</v>
+      </c>
+      <c r="D15">
+        <v>0.96899145753894278</v>
+      </c>
+      <c r="E15">
+        <v>0.96911708196624258</v>
+      </c>
+      <c r="F15">
+        <v>0.96959331558710282</v>
+      </c>
+      <c r="G15">
+        <v>0.96682776152049765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <v>0.49835290067690291</v>
+      </c>
+      <c r="C16">
+        <v>0.8386489862453036</v>
+      </c>
+      <c r="D16">
+        <v>0.98547471162377931</v>
+      </c>
+      <c r="E16">
+        <v>0.9890505767524389</v>
+      </c>
+      <c r="F16">
+        <v>0.98260175578611186</v>
+      </c>
+      <c r="G16">
+        <v>0.98459331558710361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.50200749489709207</v>
+      </c>
+      <c r="C17">
+        <v>0.73386710747965456</v>
+      </c>
+      <c r="D17">
+        <v>0.9983654045106557</v>
+      </c>
+      <c r="E17">
+        <v>0.99233931283570276</v>
+      </c>
+      <c r="F17">
+        <v>0.98590073710820769</v>
+      </c>
+      <c r="G17">
+        <v>0.99701306782825128</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.5032567257017253</v>
+      </c>
+      <c r="C3">
+        <v>0.49969868840836612</v>
+      </c>
+      <c r="D3">
+        <v>0.50739748472234525</v>
+      </c>
+      <c r="E3">
+        <v>0.51355015951790128</v>
+      </c>
+      <c r="F3">
+        <v>0.51734936380007601</v>
+      </c>
+      <c r="G3">
+        <v>0.49128142561372418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0.49885424969739928</v>
+      </c>
+      <c r="C4">
+        <v>0.51919384379061773</v>
+      </c>
+      <c r="D4">
+        <v>0.53675336760014136</v>
+      </c>
+      <c r="E4">
+        <v>0.53939722911497123</v>
+      </c>
+      <c r="F4">
+        <v>0.5440889755405881</v>
+      </c>
+      <c r="G4">
+        <v>0.55364675646933659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.49642985536119433</v>
+      </c>
+      <c r="C5">
+        <v>0.5410366755397813</v>
+      </c>
+      <c r="D5">
+        <v>0.54983836684084675</v>
+      </c>
+      <c r="E5">
+        <v>0.54660740149566933</v>
+      </c>
+      <c r="F5">
+        <v>0.55049332388042072</v>
+      </c>
+      <c r="G5">
+        <v>0.5457938476072377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.49672408879467272</v>
+      </c>
+      <c r="C6">
+        <v>0.5590449587656291</v>
+      </c>
+      <c r="D6">
+        <v>0.56545771629570529</v>
+      </c>
+      <c r="E6">
+        <v>0.55556540233959473</v>
+      </c>
+      <c r="F6">
+        <v>0.57077096802763416</v>
+      </c>
+      <c r="G6">
+        <v>0.53705920605361934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.49415144330016381</v>
+      </c>
+      <c r="C7">
+        <v>0.61102352906444657</v>
+      </c>
+      <c r="D7">
+        <v>0.6142908838473361</v>
+      </c>
+      <c r="E7">
+        <v>0.60394562040563271</v>
+      </c>
+      <c r="F7">
+        <v>0.63774466389159512</v>
+      </c>
+      <c r="G7">
+        <v>0.62270176060498661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0.49473167797768131</v>
+      </c>
+      <c r="C8">
+        <v>0.68030658636672225</v>
+      </c>
+      <c r="D8">
+        <v>0.66752944823310534</v>
+      </c>
+      <c r="E8">
+        <v>0.68185835476338164</v>
+      </c>
+      <c r="F8">
+        <v>0.64166297641189063</v>
+      </c>
+      <c r="G8">
+        <v>0.67172379181058683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.49740044644940362</v>
+      </c>
+      <c r="C9">
+        <v>0.76845865438549843</v>
+      </c>
+      <c r="D9">
+        <v>0.7603996809641963</v>
+      </c>
+      <c r="E9">
+        <v>0.75461872287662612</v>
+      </c>
+      <c r="F9">
+        <v>0.73231419118515828</v>
+      </c>
+      <c r="G9">
+        <v>0.75878723467067977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.50154632524440856</v>
+      </c>
+      <c r="C10">
+        <v>0.81182721848044459</v>
+      </c>
+      <c r="D10">
+        <v>0.82061768876284902</v>
+      </c>
+      <c r="E10">
+        <v>0.82084071842136208</v>
+      </c>
+      <c r="F10">
+        <v>0.81853952499113591</v>
+      </c>
+      <c r="G10">
+        <v>0.82589728819567498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.50105747315396443</v>
+      </c>
+      <c r="C11">
+        <v>0.86238687914803402</v>
+      </c>
+      <c r="D11">
+        <v>0.83605473827247945</v>
+      </c>
+      <c r="E11">
+        <v>0.8224935011225325</v>
+      </c>
+      <c r="F11">
+        <v>0.82720803405160903</v>
+      </c>
+      <c r="G11">
+        <v>0.83735229823939406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>0.50368579148987325</v>
+      </c>
+      <c r="C12">
+        <v>0.87445485597352524</v>
+      </c>
+      <c r="D12">
+        <v>0.90728991161952077</v>
+      </c>
+      <c r="E12">
+        <v>0.88145825948245315</v>
+      </c>
+      <c r="F12">
+        <v>0.90402828211259678</v>
+      </c>
+      <c r="G12">
+        <v>0.88431641720544385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.4930995072651137</v>
+      </c>
+      <c r="C13">
+        <v>0.848580067102359</v>
+      </c>
+      <c r="D13">
+        <v>0.90675615610276494</v>
+      </c>
+      <c r="E13">
+        <v>0.88964019851116638</v>
+      </c>
+      <c r="F13">
+        <v>0.88520988420182034</v>
+      </c>
+      <c r="G13">
+        <v>0.89805818793729508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.49399072989193249</v>
+      </c>
+      <c r="C14">
+        <v>0.83929541679356934</v>
+      </c>
+      <c r="D14">
+        <v>0.95155088388012143</v>
+      </c>
+      <c r="E14">
+        <v>0.94544472767658372</v>
+      </c>
+      <c r="F14">
+        <v>0.95785218323543708</v>
+      </c>
+      <c r="G14">
+        <v>0.95917006380716052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.50326852824727975</v>
+      </c>
+      <c r="C15">
+        <v>0.83048961273240141</v>
+      </c>
+      <c r="D15">
+        <v>0.95198734313564726</v>
+      </c>
+      <c r="E15">
+        <v>0.96265261302951277</v>
+      </c>
+      <c r="F15">
+        <v>0.97170084683442792</v>
+      </c>
+      <c r="G15">
+        <v>0.9662620671331128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <v>0.49824296069159441</v>
+      </c>
+      <c r="C16">
+        <v>0.7772961503038941</v>
+      </c>
+      <c r="D16">
+        <v>0.9618805945297122</v>
+      </c>
+      <c r="E16">
+        <v>0.97885556134502028</v>
+      </c>
+      <c r="F16">
+        <v>0.97910599745795168</v>
+      </c>
+      <c r="G16">
+        <v>0.98260914545830658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.49697524645773983</v>
+      </c>
+      <c r="C17">
+        <v>0.74338240313522219</v>
+      </c>
+      <c r="D17">
+        <v>0.94346438859542536</v>
+      </c>
+      <c r="E17">
+        <v>0.98372267752716902</v>
+      </c>
+      <c r="F17">
+        <v>0.99447977757312012</v>
+      </c>
+      <c r="G17">
+        <v>0.99770043505282779</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.49534236671351273</v>
+      </c>
+      <c r="C3">
+        <v>0.50846201903849153</v>
+      </c>
+      <c r="D3">
+        <v>0.49529995162030621</v>
+      </c>
+      <c r="E3">
+        <v>0.50051621765331478</v>
+      </c>
+      <c r="F3">
+        <v>0.48670597972273921</v>
+      </c>
+      <c r="G3">
+        <v>0.50610082122178912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0.49825285810699838</v>
+      </c>
+      <c r="C4">
+        <v>0.56943992052711834</v>
+      </c>
+      <c r="D4">
+        <v>0.58130887056278413</v>
+      </c>
+      <c r="E4">
+        <v>0.54198127141675534</v>
+      </c>
+      <c r="F4">
+        <v>0.55502612700380816</v>
+      </c>
+      <c r="G4">
+        <v>0.56056003306468294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.50093829129676037</v>
+      </c>
+      <c r="C5">
+        <v>0.57676118322208303</v>
+      </c>
+      <c r="D5">
+        <v>0.55720903528025834</v>
+      </c>
+      <c r="E5">
+        <v>0.55769703414864613</v>
+      </c>
+      <c r="F5">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="G5">
+        <v>0.53421068179132658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0.50391353024067098</v>
+      </c>
+      <c r="C6">
+        <v>0.61299781663010022</v>
+      </c>
+      <c r="D6">
+        <v>0.60629482662873746</v>
+      </c>
+      <c r="E6">
+        <v>0.56182059353847036</v>
+      </c>
+      <c r="F6">
+        <v>0.56734124523957152</v>
+      </c>
+      <c r="G6">
+        <v>0.55566903283052327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.49475652028643852</v>
+      </c>
+      <c r="C7">
+        <v>0.64716960315179639</v>
+      </c>
+      <c r="D7">
+        <v>0.68646100746296146</v>
+      </c>
+      <c r="E7">
+        <v>0.59777432712215306</v>
+      </c>
+      <c r="F7">
+        <v>0.59278776606736838</v>
+      </c>
+      <c r="G7">
+        <v>0.61353806866826044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0.50051018837290739</v>
+      </c>
+      <c r="C8">
+        <v>0.67629255434857749</v>
+      </c>
+      <c r="D8">
+        <v>0.72841091888067422</v>
+      </c>
+      <c r="E8">
+        <v>0.65628072196620513</v>
+      </c>
+      <c r="F8">
+        <v>0.64708469872759888</v>
+      </c>
+      <c r="G8">
+        <v>0.63882045373980911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.5008381922720091</v>
+      </c>
+      <c r="C9">
+        <v>0.73738109324824797</v>
+      </c>
+      <c r="D9">
+        <v>0.81799594803397291</v>
+      </c>
+      <c r="E9">
+        <v>0.75239838118870273</v>
+      </c>
+      <c r="F9">
+        <v>0.74083081928423322</v>
+      </c>
+      <c r="G9">
+        <v>0.74985451376580259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.49808681886225842</v>
+      </c>
+      <c r="C10">
+        <v>0.79932396982858855</v>
+      </c>
+      <c r="D10">
+        <v>0.84151471788095544</v>
+      </c>
+      <c r="E10">
+        <v>0.83191282165039837</v>
+      </c>
+      <c r="F10">
+        <v>0.80976175696845965</v>
+      </c>
+      <c r="G10">
+        <v>0.80922748366882424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.49648268941595608</v>
+      </c>
+      <c r="C11">
+        <v>0.78285565133533241</v>
+      </c>
+      <c r="D11">
+        <v>0.86069778478459114</v>
+      </c>
+      <c r="E11">
+        <v>0.84217803198250074</v>
+      </c>
+      <c r="F11">
+        <v>0.81887048681840846</v>
+      </c>
+      <c r="G11">
+        <v>0.83012155854897585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>0.49575109480835738</v>
+      </c>
+      <c r="C12">
+        <v>0.80360264647013402</v>
+      </c>
+      <c r="D12">
+        <v>0.91015059424755029</v>
+      </c>
+      <c r="E12">
+        <v>0.88604351293867278</v>
+      </c>
+      <c r="F12">
+        <v>0.88341599504029644</v>
+      </c>
+      <c r="G12">
+        <v>0.89843117259318306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.49978762529431631</v>
+      </c>
+      <c r="C13">
+        <v>0.82400909588395754</v>
+      </c>
+      <c r="D13">
+        <v>0.91714118031356107</v>
+      </c>
+      <c r="E13">
+        <v>0.8778968130042063</v>
+      </c>
+      <c r="F13">
+        <v>0.88439301232597312</v>
+      </c>
+      <c r="G13">
+        <v>0.87394771067955346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.50705283402673107</v>
+      </c>
+      <c r="C14">
+        <v>0.81122983353720934</v>
+      </c>
+      <c r="D14">
+        <v>0.95294704548913634</v>
+      </c>
+      <c r="E14">
+        <v>0.95809324288374464</v>
+      </c>
+      <c r="F14">
+        <v>0.96072514853240987</v>
+      </c>
+      <c r="G14">
+        <v>0.9421951111504725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.50150513622558124</v>
+      </c>
+      <c r="C15">
+        <v>0.84728142659233163</v>
+      </c>
+      <c r="D15">
+        <v>0.96985035180587942</v>
+      </c>
+      <c r="E15">
+        <v>0.96325673612834462</v>
+      </c>
+      <c r="F15">
+        <v>0.96096183386505751</v>
+      </c>
+      <c r="G15">
+        <v>0.95708669563417992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.65</v>
+      </c>
+      <c r="B16">
+        <v>0.50243752962989996</v>
+      </c>
+      <c r="C16">
+        <v>0.76688662754250192</v>
+      </c>
+      <c r="D16">
+        <v>0.97139813549007403</v>
+      </c>
+      <c r="E16">
+        <v>0.97952765215334936</v>
+      </c>
+      <c r="F16">
+        <v>0.98240133522391493</v>
+      </c>
+      <c r="G16">
+        <v>0.97365000590806861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.50048610583932251</v>
+      </c>
+      <c r="C17">
+        <v>0.74450470794725665</v>
+      </c>
+      <c r="D17">
+        <v>0.97601537123903248</v>
+      </c>
+      <c r="E17">
+        <v>0.99496098266725319</v>
+      </c>
+      <c r="F17">
+        <v>0.99371996130630758</v>
+      </c>
+      <c r="G17">
+        <v>0.99298300165837383</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>